--- a/Test Scripts.xlsx
+++ b/Test Scripts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LinhDNA\Projects\Git\AutoSusun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Susun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F401D4-CBF3-40FA-9C47-FCC99D2E8F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF90DA4-0BBA-4DF9-8FCC-828155359671}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="22605" windowHeight="12300" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16515" windowHeight="7680" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="7" r:id="rId1"/>
@@ -26,15 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2667,6 +2658,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2688,14 +2697,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2706,17 +2715,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2748,45 +2778,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2795,11 +2786,11 @@
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2828,34 +2819,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3495,12 +3458,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="containsBlanks" dxfId="25" priority="3">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I9">
-    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3703,7 +3666,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="77" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3735,7 +3698,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
@@ -3767,7 +3730,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
@@ -3799,7 +3762,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
@@ -3829,7 +3792,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
@@ -3859,7 +3822,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="75" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -3893,7 +3856,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
@@ -4023,7 +3986,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="75" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -4057,7 +4020,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="3" t="s">
         <v>574</v>
       </c>
@@ -4086,7 +4049,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="68"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="3" t="s">
         <v>43</v>
       </c>
@@ -4171,13 +4134,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="75" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="72" t="s">
         <v>581</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -4202,11 +4165,11 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="65"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="44"/>
       <c r="F23" s="3" t="s">
         <v>595</v>
@@ -4225,11 +4188,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="68"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
@@ -4252,7 +4215,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="75" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -4283,7 +4246,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="70"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
@@ -4310,7 +4273,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="3" t="s">
         <v>59</v>
       </c>
@@ -4335,7 +4298,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="75" t="s">
         <v>600</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -4362,7 +4325,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="70"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="3" t="s">
         <v>61</v>
       </c>
@@ -4385,7 +4348,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="3" t="s">
         <v>62</v>
       </c>
@@ -4410,7 +4373,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="75" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -4439,7 +4402,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="3" t="s">
         <v>67</v>
       </c>
@@ -4502,12 +4465,12 @@
     <mergeCell ref="B17:B19"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E33">
-    <cfRule type="containsBlanks" dxfId="23" priority="3">
+    <cfRule type="containsBlanks" dxfId="19" priority="3">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I33">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4532,8 +4495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38326849-7DD6-40A1-97B6-6E4855423F72}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4597,17 +4560,17 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="85" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="71">
+      <c r="E3" s="93">
         <v>1</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="82" t="s">
         <v>630</v>
       </c>
       <c r="G3" s="58"/>
@@ -4618,7 +4581,7 @@
       <c r="I3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="91">
+      <c r="J3" s="89">
         <v>1</v>
       </c>
       <c r="K3" t="s">
@@ -4630,15 +4593,15 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="83"/>
       <c r="G4" s="58"/>
       <c r="H4" s="58" t="str">
         <f>IF($F4="","",CONCATENATE(F4,"(",A4,G4,")"))</f>
@@ -4647,7 +4610,7 @@
       <c r="I4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="91"/>
+      <c r="J4" s="89"/>
       <c r="K4" t="s">
         <v>627</v>
       </c>
@@ -4657,13 +4620,13 @@
         <f t="shared" ref="A5:A53" si="1">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="75"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="58"/>
       <c r="H5" s="58" t="str">
         <f t="shared" ref="H5:H59" si="2">IF($F5="","",CONCATENATE(F5,"(",A5,G5,")"))</f>
@@ -4672,7 +4635,7 @@
       <c r="I5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="89"/>
       <c r="K5" t="s">
         <v>628</v>
       </c>
@@ -4682,13 +4645,13 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="76"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="58"/>
       <c r="H6" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4697,7 +4660,7 @@
       <c r="I6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="91"/>
+      <c r="J6" s="89"/>
       <c r="K6" t="s">
         <v>622</v>
       </c>
@@ -4707,7 +4670,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="3" t="s">
         <v>632</v>
       </c>
@@ -4728,7 +4691,7 @@
       <c r="I7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="91"/>
+      <c r="J7" s="89"/>
       <c r="K7" t="s">
         <v>623</v>
       </c>
@@ -4738,7 +4701,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="3" t="s">
         <v>76</v>
       </c>
@@ -4759,7 +4722,7 @@
       <c r="I8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="91"/>
+      <c r="J8" s="89"/>
       <c r="K8" t="s">
         <v>625</v>
       </c>
@@ -4769,17 +4732,17 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="85" t="s">
         <v>614</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="98">
+      <c r="E9" s="90">
         <v>1</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="82" t="s">
         <v>635</v>
       </c>
       <c r="G9" s="58"/>
@@ -4790,7 +4753,7 @@
       <c r="I9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="91">
+      <c r="J9" s="89">
         <v>1</v>
       </c>
       <c r="K9" t="s">
@@ -4802,15 +4765,15 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="76"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="58"/>
       <c r="H10" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4819,7 +4782,7 @@
       <c r="I10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="91"/>
+      <c r="J10" s="89"/>
       <c r="K10" t="s">
         <v>619</v>
       </c>
@@ -4829,12 +4792,12 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="80"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="100"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="58" t="s">
         <v>641</v>
       </c>
@@ -4846,7 +4809,7 @@
       <c r="I11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="91"/>
+      <c r="J11" s="89"/>
       <c r="K11" t="s">
         <v>620</v>
       </c>
@@ -4856,17 +4819,17 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="80"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="90">
         <v>2</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="82" t="s">
         <v>636</v>
       </c>
       <c r="G12" s="58" t="s">
@@ -4879,7 +4842,7 @@
       <c r="I12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="91"/>
+      <c r="J12" s="89"/>
       <c r="K12" t="s">
         <v>683</v>
       </c>
@@ -4889,13 +4852,13 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="80"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="3" t="s">
         <v>615</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="75"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="58"/>
       <c r="H13" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4904,7 +4867,7 @@
       <c r="I13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="91"/>
+      <c r="J13" s="89"/>
       <c r="K13" t="s">
         <v>621</v>
       </c>
@@ -4914,15 +4877,15 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="80"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="76"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="58"/>
       <c r="H14" s="58" t="str">
         <f t="shared" si="2"/>
@@ -4931,7 +4894,7 @@
       <c r="I14" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="91"/>
+      <c r="J14" s="89"/>
       <c r="K14" t="s">
         <v>624</v>
       </c>
@@ -4941,7 +4904,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="85" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -4950,7 +4913,7 @@
       <c r="D15" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="90">
         <v>3</v>
       </c>
       <c r="F15" s="58" t="s">
@@ -4964,7 +4927,7 @@
       <c r="I15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="91"/>
+      <c r="J15" s="89"/>
       <c r="K15" t="s">
         <v>626</v>
       </c>
@@ -4974,14 +4937,14 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="80"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="100"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="58" t="s">
         <v>639</v>
       </c>
@@ -4993,7 +4956,7 @@
       <c r="I16" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="91"/>
+      <c r="J16" s="89"/>
       <c r="K16" t="s">
         <v>617</v>
       </c>
@@ -5003,7 +4966,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="85" t="s">
         <v>613</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -5012,7 +4975,7 @@
       <c r="D17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="102">
+      <c r="E17" s="71">
         <v>1</v>
       </c>
       <c r="F17" s="58" t="s">
@@ -5026,7 +4989,7 @@
       <c r="I17" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J17" s="92">
+      <c r="J17" s="64">
         <v>2</v>
       </c>
       <c r="K17" t="s">
@@ -5038,7 +5001,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="3" t="s">
         <v>92</v>
       </c>
@@ -5059,7 +5022,7 @@
       <c r="I18" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="91">
+      <c r="J18" s="89">
         <v>3</v>
       </c>
       <c r="K18" t="s">
@@ -5071,7 +5034,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="3" t="s">
         <v>615</v>
       </c>
@@ -5092,7 +5055,7 @@
       <c r="I19" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="91"/>
+      <c r="J19" s="89"/>
       <c r="K19" t="s">
         <v>677</v>
       </c>
@@ -5102,7 +5065,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="80"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="3" t="s">
         <v>83</v>
       </c>
@@ -5125,21 +5088,21 @@
       <c r="I20" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="91"/>
+      <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="85" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="103">
+      <c r="E21" s="86">
         <v>1</v>
       </c>
       <c r="F21" s="58" t="s">
@@ -5153,7 +5116,7 @@
       <c r="I21" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="91">
+      <c r="J21" s="89">
         <v>3</v>
       </c>
     </row>
@@ -5162,14 +5125,14 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="80"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="104"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="58" t="s">
         <v>639</v>
       </c>
@@ -5183,21 +5146,21 @@
       <c r="I22" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="91"/>
+      <c r="J22" s="89"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="79" t="s">
         <v>97</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="104"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="58" t="s">
         <v>596</v>
       </c>
@@ -5211,7 +5174,7 @@
       <c r="I23" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="91"/>
+      <c r="J23" s="89"/>
       <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5219,12 +5182,12 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="78"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="104"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="58" t="s">
         <v>665</v>
       </c>
@@ -5236,7 +5199,7 @@
       <c r="I24" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="91"/>
+      <c r="J24" s="89"/>
       <c r="K24" s="62"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -5244,14 +5207,14 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="85" t="s">
         <v>100</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="105"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="58" t="s">
         <v>638</v>
       </c>
@@ -5263,7 +5226,7 @@
       <c r="I25" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="91"/>
+      <c r="J25" s="89"/>
       <c r="K25" s="63" t="s">
         <v>660</v>
       </c>
@@ -5273,15 +5236,15 @@
         <f>A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="80"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="103">
+      <c r="E26" s="86">
         <v>1</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="82" t="s">
         <v>640</v>
       </c>
       <c r="G26" s="58"/>
@@ -5292,7 +5255,7 @@
       <c r="I26" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J26" s="91"/>
+      <c r="J26" s="89"/>
       <c r="K26" s="62" t="s">
         <v>661</v>
       </c>
@@ -5302,13 +5265,13 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="80"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="75"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="83"/>
       <c r="G27" s="58"/>
       <c r="H27" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5317,7 +5280,7 @@
       <c r="I27" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J27" s="91"/>
+      <c r="J27" s="89"/>
       <c r="K27" s="62" t="s">
         <v>662</v>
       </c>
@@ -5327,15 +5290,15 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="80"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="75"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="83"/>
       <c r="G28" s="58"/>
       <c r="H28" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5344,7 +5307,7 @@
       <c r="I28" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J28" s="91"/>
+      <c r="J28" s="89"/>
       <c r="K28" s="62" t="s">
         <v>663</v>
       </c>
@@ -5354,15 +5317,15 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="80"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="105"/>
-      <c r="F29" s="76"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="84"/>
       <c r="G29" s="58"/>
       <c r="H29" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5371,7 +5334,7 @@
       <c r="I29" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J29" s="91"/>
+      <c r="J29" s="89"/>
       <c r="K29" s="62" t="s">
         <v>660</v>
       </c>
@@ -5381,14 +5344,14 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="85" t="s">
         <v>612</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="101">
+      <c r="E30" s="70">
         <v>1</v>
       </c>
       <c r="F30" s="58" t="s">
@@ -5404,7 +5367,7 @@
       <c r="I30" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J30" s="91">
+      <c r="J30" s="89">
         <v>3</v>
       </c>
     </row>
@@ -5413,14 +5376,14 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="80"/>
+      <c r="B31" s="85"/>
       <c r="C31" s="3" t="s">
         <v>615</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="101">
+      <c r="E31" s="70">
         <v>2</v>
       </c>
       <c r="F31" s="58" t="s">
@@ -5436,19 +5399,19 @@
       <c r="I31" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J31" s="91"/>
+      <c r="J31" s="89"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="80"/>
+      <c r="B32" s="85"/>
       <c r="C32" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="101">
+      <c r="E32" s="70">
         <v>3</v>
       </c>
       <c r="F32" s="58" t="s">
@@ -5464,24 +5427,24 @@
       <c r="I32" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J32" s="91"/>
+      <c r="J32" s="89"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="85" t="s">
         <v>109</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="103">
+      <c r="E33" s="86">
         <v>1</v>
       </c>
-      <c r="F33" s="74" t="s">
+      <c r="F33" s="82" t="s">
         <v>664</v>
       </c>
       <c r="G33" s="58"/>
@@ -5492,7 +5455,7 @@
       <c r="I33" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J33" s="91">
+      <c r="J33" s="89">
         <v>2</v>
       </c>
     </row>
@@ -5501,15 +5464,15 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="80"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="104"/>
-      <c r="F34" s="76"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="84"/>
       <c r="G34" s="58"/>
       <c r="H34" s="58" t="str">
         <f t="shared" si="2"/>
@@ -5518,21 +5481,21 @@
       <c r="I34" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J34" s="91"/>
+      <c r="J34" s="89"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="79" t="s">
         <v>113</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D35" s="33"/>
-      <c r="E35" s="104"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="58" t="s">
         <v>596</v>
       </c>
@@ -5546,7 +5509,7 @@
       <c r="I35" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J35" s="91">
+      <c r="J35" s="89">
         <v>1</v>
       </c>
     </row>
@@ -5555,12 +5518,12 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="79"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="33" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="33"/>
-      <c r="E36" s="104"/>
+      <c r="E36" s="87"/>
       <c r="F36" s="58" t="s">
         <v>665</v>
       </c>
@@ -5572,21 +5535,21 @@
       <c r="I36" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J36" s="91"/>
+      <c r="J36" s="89"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="57">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="79" t="s">
         <v>666</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="105"/>
+      <c r="E37" s="88"/>
       <c r="F37" s="58" t="s">
         <v>638</v>
       </c>
@@ -5600,14 +5563,14 @@
       <c r="I37" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J37" s="91"/>
+      <c r="J37" s="89"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="78"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="3" t="s">
         <v>92</v>
       </c>
@@ -5628,7 +5591,7 @@
       <c r="I38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J38" s="91">
+      <c r="J38" s="89">
         <v>3</v>
       </c>
     </row>
@@ -5637,7 +5600,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="78"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="3" t="s">
         <v>615</v>
       </c>
@@ -5660,14 +5623,14 @@
       <c r="I39" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J39" s="91"/>
+      <c r="J39" s="89"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="78"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="3" t="s">
         <v>83</v>
       </c>
@@ -5688,14 +5651,14 @@
       <c r="I40" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J40" s="91"/>
+      <c r="J40" s="89"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="57">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="85" t="s">
         <v>117</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -5714,19 +5677,19 @@
       <c r="I41" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J41" s="93"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="56">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="80"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="102">
+      <c r="E42" s="71">
         <v>1</v>
       </c>
       <c r="F42" s="58" t="s">
@@ -5740,7 +5703,7 @@
       <c r="I42" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J42" s="93">
+      <c r="J42" s="65">
         <v>2</v>
       </c>
     </row>
@@ -5749,14 +5712,14 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="85" t="s">
         <v>120</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="101">
+      <c r="E43" s="70">
         <v>1</v>
       </c>
       <c r="F43" s="58" t="s">
@@ -5772,7 +5735,7 @@
       <c r="I43" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J43" s="91">
+      <c r="J43" s="89">
         <v>3</v>
       </c>
     </row>
@@ -5781,14 +5744,14 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="80"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="3" t="s">
         <v>615</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="101">
+      <c r="E44" s="70">
         <v>2</v>
       </c>
       <c r="F44" s="58" t="s">
@@ -5804,19 +5767,19 @@
       <c r="I44" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J44" s="91"/>
+      <c r="J44" s="89"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="56">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="80"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="101">
+      <c r="E45" s="70">
         <v>3</v>
       </c>
       <c r="F45" s="58" t="s">
@@ -5832,14 +5795,14 @@
       <c r="I45" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J45" s="91"/>
+      <c r="J45" s="89"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="56">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="85" t="s">
         <v>122</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -5848,7 +5811,7 @@
       <c r="D46" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="103">
+      <c r="E46" s="86">
         <v>1</v>
       </c>
       <c r="F46" s="58" t="s">
@@ -5864,7 +5827,7 @@
       <c r="I46" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J46" s="91">
+      <c r="J46" s="89">
         <v>3</v>
       </c>
     </row>
@@ -5873,14 +5836,14 @@
         <f>A46+1</f>
         <v>45</v>
       </c>
-      <c r="B47" s="80"/>
+      <c r="B47" s="85"/>
       <c r="C47" s="3" t="s">
         <v>616</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="104"/>
+      <c r="E47" s="87"/>
       <c r="F47" s="58" t="s">
         <v>667</v>
       </c>
@@ -5892,21 +5855,21 @@
       <c r="I47" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J47" s="91"/>
+      <c r="J47" s="89"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="56">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="105"/>
+      <c r="E48" s="88"/>
       <c r="F48" s="58" t="s">
         <v>643</v>
       </c>
@@ -5918,14 +5881,14 @@
       <c r="I48" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J48" s="91"/>
+      <c r="J48" s="89"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="56">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="85" t="s">
         <v>128</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -5948,7 +5911,7 @@
       <c r="I49" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J49" s="91">
+      <c r="J49" s="89">
         <v>3</v>
       </c>
     </row>
@@ -5957,7 +5920,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="80"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="3" t="s">
         <v>615</v>
       </c>
@@ -5978,14 +5941,14 @@
       <c r="I50" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J50" s="91"/>
+      <c r="J50" s="89"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="56">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="80"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="3" t="s">
         <v>116</v>
       </c>
@@ -6008,21 +5971,21 @@
       <c r="I51" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J51" s="91"/>
+      <c r="J51" s="89"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="56">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="80" t="s">
+      <c r="B52" s="85" t="s">
         <v>129</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="101">
+      <c r="E52" s="70">
         <v>1</v>
       </c>
       <c r="F52" s="58" t="s">
@@ -6038,7 +6001,7 @@
       <c r="I52" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J52" s="91">
+      <c r="J52" s="89">
         <v>2</v>
       </c>
     </row>
@@ -6047,14 +6010,14 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="80"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="101">
+      <c r="E53" s="70">
         <v>2</v>
       </c>
       <c r="F53" s="58" t="s">
@@ -6068,21 +6031,21 @@
       <c r="I53" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J53" s="91"/>
+      <c r="J53" s="89"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" ref="A54:A59" si="3">A53+1</f>
         <v>52</v>
       </c>
-      <c r="B54" s="80"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E54" s="101">
+      <c r="E54" s="70">
         <v>3</v>
       </c>
       <c r="F54" s="58" t="s">
@@ -6098,21 +6061,21 @@
       <c r="I54" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J54" s="91"/>
+      <c r="J54" s="89"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="B55" s="80"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E55" s="103">
+      <c r="E55" s="86">
         <v>1</v>
       </c>
       <c r="F55" s="58" t="s">
@@ -6126,7 +6089,7 @@
       <c r="I55" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J55" s="91">
+      <c r="J55" s="89">
         <v>1</v>
       </c>
     </row>
@@ -6135,14 +6098,14 @@
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="B56" s="80"/>
+      <c r="B56" s="85"/>
       <c r="C56" s="32" t="s">
         <v>137</v>
       </c>
       <c r="D56" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E56" s="105"/>
+      <c r="E56" s="88"/>
       <c r="F56" s="58" t="s">
         <v>596</v>
       </c>
@@ -6156,14 +6119,14 @@
       <c r="I56" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J56" s="91"/>
+      <c r="J56" s="89"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="B57" s="80" t="s">
+      <c r="B57" s="85" t="s">
         <v>139</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -6184,7 +6147,7 @@
       <c r="I57" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J57" s="91">
+      <c r="J57" s="89">
         <v>2</v>
       </c>
     </row>
@@ -6193,7 +6156,7 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="B58" s="80"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="3" t="s">
         <v>140</v>
       </c>
@@ -6216,7 +6179,7 @@
       <c r="I58" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J58" s="91"/>
+      <c r="J58" s="89"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="58">
@@ -6239,11 +6202,10 @@
       <c r="I59" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J59" s="91"/>
+      <c r="J59" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="E33:E37"/>
     <mergeCell ref="E46:E48"/>
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="J3:J8"/>
@@ -6252,6 +6214,10 @@
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="J9:J16"/>
     <mergeCell ref="J52:J54"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F26:F29"/>
     <mergeCell ref="J57:J59"/>
     <mergeCell ref="J55:J56"/>
     <mergeCell ref="J21:J29"/>
@@ -6262,8 +6228,6 @@
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="J43:J45"/>
     <mergeCell ref="J35:J37"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="J18:J20"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B34"/>
@@ -6272,8 +6236,6 @@
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B52:B56"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F26:F29"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B40"/>
@@ -6288,80 +6250,81 @@
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="E21:E25"/>
+    <mergeCell ref="E33:E37"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="E3 E33 E40:E42 E55 E7:E9 E12 E17:E21 E15 E26">
-    <cfRule type="containsBlanks" dxfId="21" priority="18">
+    <cfRule type="containsBlanks" dxfId="17" priority="18">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I59">
-    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E40">
-    <cfRule type="containsBlanks" dxfId="18" priority="15">
+    <cfRule type="containsBlanks" dxfId="15" priority="15">
       <formula>LEN(TRIM(E38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="containsBlanks" dxfId="15" priority="12">
+    <cfRule type="containsBlanks" dxfId="14" priority="12">
       <formula>LEN(TRIM(E46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsBlanks" dxfId="14" priority="11">
+    <cfRule type="containsBlanks" dxfId="13" priority="11">
       <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E51">
-    <cfRule type="containsBlanks" dxfId="13" priority="10">
+    <cfRule type="containsBlanks" dxfId="12" priority="10">
       <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsBlanks" dxfId="12" priority="9">
+    <cfRule type="containsBlanks" dxfId="11" priority="9">
       <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E54">
-    <cfRule type="containsBlanks" dxfId="11" priority="8">
+    <cfRule type="containsBlanks" dxfId="10" priority="8">
       <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:H3 F30:H33 G27:H29 G34:H34 F15:H26 G13:H14 F11:H12 G10:H10 F7:H9 G4:H6 F35:H59">
-    <cfRule type="containsBlanks" dxfId="0" priority="7">
+    <cfRule type="containsBlanks" dxfId="9" priority="7">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="containsBlanks" dxfId="7" priority="6">
+    <cfRule type="containsBlanks" dxfId="8" priority="6">
       <formula>LEN(TRIM(E57))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E59">
-    <cfRule type="containsBlanks" dxfId="6" priority="5">
+    <cfRule type="containsBlanks" dxfId="7" priority="5">
       <formula>LEN(TRIM(E57))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+    <cfRule type="containsBlanks" dxfId="6" priority="4">
       <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E32">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+    <cfRule type="containsBlanks" dxfId="5" priority="3">
       <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(E43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E45">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(E43))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6410,7 +6373,7 @@
       <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="98" t="s">
         <v>142</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -6424,7 +6387,7 @@
         <f>1+A3</f>
         <v>2</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="12" t="s">
         <v>144</v>
       </c>
@@ -6438,7 +6401,7 @@
         <f t="shared" ref="A5:A12" si="0">1+A4</f>
         <v>3</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="12" t="s">
         <v>146</v>
       </c>
@@ -6452,7 +6415,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="87"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="12" t="s">
         <v>71</v>
       </c>
@@ -6464,7 +6427,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="87"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="12" t="s">
         <v>148</v>
       </c>
@@ -6478,7 +6441,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="12" t="s">
         <v>149</v>
       </c>
@@ -6492,7 +6455,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="12" t="s">
         <v>151</v>
       </c>
@@ -6506,7 +6469,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="87"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="12" t="s">
         <v>153</v>
       </c>
@@ -6520,7 +6483,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="87"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="12" t="s">
         <v>155</v>
       </c>
@@ -6534,7 +6497,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="87"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="12" t="s">
         <v>157</v>
       </c>
@@ -6548,7 +6511,7 @@
         <f t="shared" ref="A13:A15" si="1">1+A12</f>
         <v>11</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="15" t="s">
         <v>159</v>
       </c>
@@ -6562,7 +6525,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="96" t="s">
         <v>161</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -6578,7 +6541,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="81"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="12" t="s">
         <v>71</v>
       </c>
@@ -6590,7 +6553,7 @@
         <f t="shared" ref="A16:A111" si="2">A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="81"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="12" t="s">
         <v>151</v>
       </c>
@@ -6604,7 +6567,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B17" s="81"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="12" t="s">
         <v>153</v>
       </c>
@@ -6618,7 +6581,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B18" s="81"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="12" t="s">
         <v>155</v>
       </c>
@@ -6632,7 +6595,7 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B19" s="81"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="12" t="s">
         <v>167</v>
       </c>
@@ -6646,7 +6609,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="81"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="12" t="s">
         <v>157</v>
       </c>
@@ -6660,7 +6623,7 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="81"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="12" t="s">
         <v>159</v>
       </c>
@@ -6674,7 +6637,7 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B22" s="81"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="12" t="s">
         <v>170</v>
       </c>
@@ -6688,7 +6651,7 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23" s="81"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="12" t="s">
         <v>172</v>
       </c>
@@ -6702,7 +6665,7 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="96" t="s">
         <v>174</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -6718,7 +6681,7 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B25" s="81"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="12" t="s">
         <v>177</v>
       </c>
@@ -6730,7 +6693,7 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B26" s="81"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="12" t="s">
         <v>178</v>
       </c>
@@ -6744,7 +6707,7 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B27" s="81"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="12" t="s">
         <v>179</v>
       </c>
@@ -6756,7 +6719,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B28" s="81"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="12" t="s">
         <v>180</v>
       </c>
@@ -6770,7 +6733,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="100" t="s">
         <v>182</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -6784,7 +6747,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B30" s="85"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="14" t="s">
         <v>184</v>
       </c>
@@ -6798,7 +6761,7 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B31" s="85"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="14" t="s">
         <v>186</v>
       </c>
@@ -6812,7 +6775,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B32" s="85"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="14" t="s">
         <v>188</v>
       </c>
@@ -6826,7 +6789,7 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B33" s="85"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="14" t="s">
         <v>190</v>
       </c>
@@ -6840,7 +6803,7 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B34" s="85"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="14" t="s">
         <v>192</v>
       </c>
@@ -6854,7 +6817,7 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B35" s="85"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="14" t="s">
         <v>194</v>
       </c>
@@ -6868,7 +6831,7 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B36" s="85"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="14" t="s">
         <v>196</v>
       </c>
@@ -6882,7 +6845,7 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B37" s="85"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="14" t="s">
         <v>198</v>
       </c>
@@ -6894,7 +6857,7 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B38" s="85"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="16" t="s">
         <v>199</v>
       </c>
@@ -6906,7 +6869,7 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B39" s="85"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="14" t="s">
         <v>200</v>
       </c>
@@ -6920,7 +6883,7 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B40" s="85"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="14" t="s">
         <v>148</v>
       </c>
@@ -6934,7 +6897,7 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B41" s="85"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="14" t="s">
         <v>203</v>
       </c>
@@ -6948,7 +6911,7 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B42" s="85"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="14" t="s">
         <v>205</v>
       </c>
@@ -6962,7 +6925,7 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B43" s="85"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="14" t="s">
         <v>207</v>
       </c>
@@ -6976,7 +6939,7 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B44" s="85"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="14" t="s">
         <v>203</v>
       </c>
@@ -6990,7 +6953,7 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B45" s="85"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="14" t="s">
         <v>205</v>
       </c>
@@ -7004,7 +6967,7 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B46" s="85"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="12" t="s">
         <v>211</v>
       </c>
@@ -7018,7 +6981,7 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B47" s="85"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="14" t="s">
         <v>213</v>
       </c>
@@ -7032,7 +6995,7 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="100" t="s">
         <v>215</v>
       </c>
       <c r="C48" s="14" t="s">
@@ -7048,7 +7011,7 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B49" s="85"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="14" t="s">
         <v>218</v>
       </c>
@@ -7062,7 +7025,7 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="B50" s="85"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="16" t="s">
         <v>220</v>
       </c>
@@ -7076,7 +7039,7 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B51" s="85"/>
+      <c r="B51" s="100"/>
       <c r="C51" s="14" t="s">
         <v>221</v>
       </c>
@@ -7090,7 +7053,7 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B52" s="85"/>
+      <c r="B52" s="100"/>
       <c r="C52" s="14" t="s">
         <v>223</v>
       </c>
@@ -7104,7 +7067,7 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="B53" s="85" t="s">
+      <c r="B53" s="100" t="s">
         <v>225</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -7118,7 +7081,7 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="B54" s="85"/>
+      <c r="B54" s="100"/>
       <c r="C54" s="10" t="s">
         <v>227</v>
       </c>
@@ -7132,7 +7095,7 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="B55" s="85"/>
+      <c r="B55" s="100"/>
       <c r="C55" s="10" t="s">
         <v>229</v>
       </c>
@@ -7146,7 +7109,7 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B56" s="85"/>
+      <c r="B56" s="100"/>
       <c r="C56" s="10" t="s">
         <v>231</v>
       </c>
@@ -7158,7 +7121,7 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="B57" s="85"/>
+      <c r="B57" s="100"/>
       <c r="C57" s="10" t="s">
         <v>227</v>
       </c>
@@ -7172,7 +7135,7 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="B58" s="85"/>
+      <c r="B58" s="100"/>
       <c r="C58" s="10" t="s">
         <v>233</v>
       </c>
@@ -7184,7 +7147,7 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="B59" s="85"/>
+      <c r="B59" s="100"/>
       <c r="C59" s="10" t="s">
         <v>234</v>
       </c>
@@ -7198,7 +7161,7 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="B60" s="85"/>
+      <c r="B60" s="100"/>
       <c r="C60" s="10" t="s">
         <v>236</v>
       </c>
@@ -7212,7 +7175,7 @@
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="B61" s="85"/>
+      <c r="B61" s="100"/>
       <c r="C61" s="10" t="s">
         <v>238</v>
       </c>
@@ -7226,7 +7189,7 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="B62" s="85"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="10" t="s">
         <v>240</v>
       </c>
@@ -7240,7 +7203,7 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="B63" s="85"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="10" t="s">
         <v>242</v>
       </c>
@@ -7254,7 +7217,7 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="B64" s="85"/>
+      <c r="B64" s="100"/>
       <c r="C64" s="10" t="s">
         <v>244</v>
       </c>
@@ -7268,7 +7231,7 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="B65" s="86"/>
+      <c r="B65" s="101"/>
       <c r="C65" s="20" t="s">
         <v>246</v>
       </c>
@@ -7282,7 +7245,7 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="B66" s="81" t="s">
+      <c r="B66" s="96" t="s">
         <v>248</v>
       </c>
       <c r="C66" s="10" t="s">
@@ -7298,7 +7261,7 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="B67" s="81"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="10" t="s">
         <v>251</v>
       </c>
@@ -7312,7 +7275,7 @@
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="B68" s="81"/>
+      <c r="B68" s="96"/>
       <c r="C68" s="12" t="s">
         <v>253</v>
       </c>
@@ -7326,7 +7289,7 @@
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="B69" s="81"/>
+      <c r="B69" s="96"/>
       <c r="C69" s="12" t="s">
         <v>255</v>
       </c>
@@ -7340,7 +7303,7 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B70" s="81"/>
+      <c r="B70" s="96"/>
       <c r="C70" s="12" t="s">
         <v>257</v>
       </c>
@@ -7354,7 +7317,7 @@
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B71" s="81"/>
+      <c r="B71" s="96"/>
       <c r="C71" s="12" t="s">
         <v>148</v>
       </c>
@@ -7368,7 +7331,7 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B72" s="81"/>
+      <c r="B72" s="96"/>
       <c r="C72" s="12" t="s">
         <v>260</v>
       </c>
@@ -7382,7 +7345,7 @@
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B73" s="81"/>
+      <c r="B73" s="96"/>
       <c r="C73" s="12" t="s">
         <v>262</v>
       </c>
@@ -7396,7 +7359,7 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B74" s="81"/>
+      <c r="B74" s="96"/>
       <c r="C74" s="12" t="s">
         <v>264</v>
       </c>
@@ -7410,7 +7373,7 @@
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B75" s="83"/>
+      <c r="B75" s="98"/>
       <c r="C75" s="23" t="s">
         <v>266</v>
       </c>
@@ -7424,7 +7387,7 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B76" s="81" t="s">
+      <c r="B76" s="96" t="s">
         <v>268</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -7440,7 +7403,7 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B77" s="81"/>
+      <c r="B77" s="96"/>
       <c r="C77" s="10" t="s">
         <v>271</v>
       </c>
@@ -7454,7 +7417,7 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B78" s="81"/>
+      <c r="B78" s="96"/>
       <c r="C78" s="12" t="s">
         <v>273</v>
       </c>
@@ -7468,7 +7431,7 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B79" s="81"/>
+      <c r="B79" s="96"/>
       <c r="C79" s="12" t="s">
         <v>275</v>
       </c>
@@ -7482,7 +7445,7 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B80" s="81"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="12" t="s">
         <v>277</v>
       </c>
@@ -7496,7 +7459,7 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B81" s="81"/>
+      <c r="B81" s="96"/>
       <c r="C81" s="12" t="s">
         <v>277</v>
       </c>
@@ -7510,7 +7473,7 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B82" s="81"/>
+      <c r="B82" s="96"/>
       <c r="C82" s="12" t="s">
         <v>277</v>
       </c>
@@ -7524,7 +7487,7 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B83" s="81"/>
+      <c r="B83" s="96"/>
       <c r="C83" s="12" t="s">
         <v>280</v>
       </c>
@@ -7538,7 +7501,7 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B84" s="81"/>
+      <c r="B84" s="96"/>
       <c r="C84" s="12" t="s">
         <v>282</v>
       </c>
@@ -7552,7 +7515,7 @@
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B85" s="81"/>
+      <c r="B85" s="96"/>
       <c r="C85" s="12" t="s">
         <v>280</v>
       </c>
@@ -7566,7 +7529,7 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B86" s="81"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="12" t="s">
         <v>284</v>
       </c>
@@ -7580,7 +7543,7 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B87" s="81"/>
+      <c r="B87" s="96"/>
       <c r="C87" s="12" t="s">
         <v>280</v>
       </c>
@@ -7594,7 +7557,7 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B88" s="81"/>
+      <c r="B88" s="96"/>
       <c r="C88" s="12" t="s">
         <v>285</v>
       </c>
@@ -7608,7 +7571,7 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B89" s="81"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="12" t="s">
         <v>287</v>
       </c>
@@ -7622,7 +7585,7 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B90" s="81"/>
+      <c r="B90" s="96"/>
       <c r="C90" s="10" t="s">
         <v>289</v>
       </c>
@@ -7636,7 +7599,7 @@
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B91" s="81"/>
+      <c r="B91" s="96"/>
       <c r="C91" s="12" t="s">
         <v>291</v>
       </c>
@@ -7650,7 +7613,7 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B92" s="81"/>
+      <c r="B92" s="96"/>
       <c r="C92" s="12" t="s">
         <v>293</v>
       </c>
@@ -7664,7 +7627,7 @@
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B93" s="81"/>
+      <c r="B93" s="96"/>
       <c r="C93" s="12" t="s">
         <v>295</v>
       </c>
@@ -7678,7 +7641,7 @@
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B94" s="81"/>
+      <c r="B94" s="96"/>
       <c r="C94" s="12" t="s">
         <v>297</v>
       </c>
@@ -7692,7 +7655,7 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B95" s="81"/>
+      <c r="B95" s="96"/>
       <c r="C95" s="12" t="s">
         <v>295</v>
       </c>
@@ -7706,7 +7669,7 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B96" s="81"/>
+      <c r="B96" s="96"/>
       <c r="C96" s="12" t="s">
         <v>299</v>
       </c>
@@ -7720,7 +7683,7 @@
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B97" s="81"/>
+      <c r="B97" s="96"/>
       <c r="C97" s="12" t="s">
         <v>301</v>
       </c>
@@ -7734,7 +7697,7 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B98" s="81"/>
+      <c r="B98" s="96"/>
       <c r="C98" s="12" t="s">
         <v>303</v>
       </c>
@@ -7748,7 +7711,7 @@
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B99" s="81"/>
+      <c r="B99" s="96"/>
       <c r="C99" s="12" t="s">
         <v>295</v>
       </c>
@@ -7762,7 +7725,7 @@
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B100" s="81"/>
+      <c r="B100" s="96"/>
       <c r="C100" s="12" t="s">
         <v>305</v>
       </c>
@@ -7776,7 +7739,7 @@
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B101" s="81"/>
+      <c r="B101" s="96"/>
       <c r="C101" s="12" t="s">
         <v>307</v>
       </c>
@@ -7790,7 +7753,7 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B102" s="81"/>
+      <c r="B102" s="96"/>
       <c r="C102" s="12" t="s">
         <v>309</v>
       </c>
@@ -7804,7 +7767,7 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B103" s="81"/>
+      <c r="B103" s="96"/>
       <c r="C103" s="12" t="s">
         <v>310</v>
       </c>
@@ -7818,7 +7781,7 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="B104" s="81"/>
+      <c r="B104" s="96"/>
       <c r="C104" s="12" t="s">
         <v>312</v>
       </c>
@@ -7832,7 +7795,7 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="B105" s="81"/>
+      <c r="B105" s="96"/>
       <c r="C105" s="12" t="s">
         <v>314</v>
       </c>
@@ -7846,7 +7809,7 @@
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="B106" s="81"/>
+      <c r="B106" s="96"/>
       <c r="C106" s="12" t="s">
         <v>316</v>
       </c>
@@ -7860,7 +7823,7 @@
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="B107" s="81"/>
+      <c r="B107" s="96"/>
       <c r="C107" s="12" t="s">
         <v>318</v>
       </c>
@@ -7874,7 +7837,7 @@
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="B108" s="81"/>
+      <c r="B108" s="96"/>
       <c r="C108" s="12" t="s">
         <v>303</v>
       </c>
@@ -7888,7 +7851,7 @@
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="B109" s="81"/>
+      <c r="B109" s="96"/>
       <c r="C109" s="12" t="s">
         <v>320</v>
       </c>
@@ -7902,7 +7865,7 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="B110" s="81"/>
+      <c r="B110" s="96"/>
       <c r="C110" s="12" t="s">
         <v>322</v>
       </c>
@@ -7916,7 +7879,7 @@
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="B111" s="81"/>
+      <c r="B111" s="96"/>
       <c r="C111" s="12" t="s">
         <v>275</v>
       </c>
@@ -7930,7 +7893,7 @@
         <f t="shared" ref="A112:A167" si="3">A111+1</f>
         <v>110</v>
       </c>
-      <c r="B112" s="81"/>
+      <c r="B112" s="96"/>
       <c r="C112" s="12" t="s">
         <v>275</v>
       </c>
@@ -7944,7 +7907,7 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="B113" s="81"/>
+      <c r="B113" s="96"/>
       <c r="C113" s="10" t="s">
         <v>325</v>
       </c>
@@ -7958,7 +7921,7 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="B114" s="81" t="s">
+      <c r="B114" s="96" t="s">
         <v>327</v>
       </c>
       <c r="C114" s="10" t="s">
@@ -7974,7 +7937,7 @@
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="B115" s="81"/>
+      <c r="B115" s="96"/>
       <c r="C115" s="10" t="s">
         <v>330</v>
       </c>
@@ -7988,7 +7951,7 @@
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="B116" s="81"/>
+      <c r="B116" s="96"/>
       <c r="C116" s="12" t="s">
         <v>332</v>
       </c>
@@ -8002,7 +7965,7 @@
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="B117" s="81"/>
+      <c r="B117" s="96"/>
       <c r="C117" s="10" t="s">
         <v>333</v>
       </c>
@@ -8016,7 +7979,7 @@
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="B118" s="81"/>
+      <c r="B118" s="96"/>
       <c r="C118" s="12" t="s">
         <v>335</v>
       </c>
@@ -8030,7 +7993,7 @@
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="B119" s="81"/>
+      <c r="B119" s="96"/>
       <c r="C119" s="10" t="s">
         <v>333</v>
       </c>
@@ -8044,7 +8007,7 @@
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="B120" s="81"/>
+      <c r="B120" s="96"/>
       <c r="C120" s="10" t="s">
         <v>338</v>
       </c>
@@ -8058,7 +8021,7 @@
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="B121" s="81"/>
+      <c r="B121" s="96"/>
       <c r="C121" s="12" t="s">
         <v>335</v>
       </c>
@@ -8072,7 +8035,7 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B122" s="81"/>
+      <c r="B122" s="96"/>
       <c r="C122" s="10" t="s">
         <v>340</v>
       </c>
@@ -8084,7 +8047,7 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="B123" s="81"/>
+      <c r="B123" s="96"/>
       <c r="C123" s="10" t="s">
         <v>341</v>
       </c>
@@ -8098,7 +8061,7 @@
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="B124" s="81"/>
+      <c r="B124" s="96"/>
       <c r="C124" s="10" t="s">
         <v>342</v>
       </c>
@@ -8112,7 +8075,7 @@
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="B125" s="81"/>
+      <c r="B125" s="96"/>
       <c r="C125" s="10" t="s">
         <v>333</v>
       </c>
@@ -8124,7 +8087,7 @@
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="B126" s="81"/>
+      <c r="B126" s="96"/>
       <c r="C126" s="10" t="s">
         <v>344</v>
       </c>
@@ -8138,7 +8101,7 @@
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="B127" s="81"/>
+      <c r="B127" s="96"/>
       <c r="C127" s="10" t="s">
         <v>346</v>
       </c>
@@ -8152,7 +8115,7 @@
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="B128" s="81"/>
+      <c r="B128" s="96"/>
       <c r="C128" s="10" t="s">
         <v>348</v>
       </c>
@@ -8166,7 +8129,7 @@
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="B129" s="81"/>
+      <c r="B129" s="96"/>
       <c r="C129" s="10" t="s">
         <v>350</v>
       </c>
@@ -8180,7 +8143,7 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="B130" s="81"/>
+      <c r="B130" s="96"/>
       <c r="C130" s="10" t="s">
         <v>352</v>
       </c>
@@ -8194,7 +8157,7 @@
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="B131" s="81"/>
+      <c r="B131" s="96"/>
       <c r="C131" s="10" t="s">
         <v>333</v>
       </c>
@@ -8206,7 +8169,7 @@
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="B132" s="83"/>
+      <c r="B132" s="98"/>
       <c r="C132" s="20" t="s">
         <v>354</v>
       </c>
@@ -8220,7 +8183,7 @@
         <f t="shared" si="3"/>
         <v>131</v>
       </c>
-      <c r="B133" s="82" t="s">
+      <c r="B133" s="97" t="s">
         <v>356</v>
       </c>
       <c r="C133" s="10" t="s">
@@ -8234,7 +8197,7 @@
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-      <c r="B134" s="82"/>
+      <c r="B134" s="97"/>
       <c r="C134" s="10" t="s">
         <v>358</v>
       </c>
@@ -8248,7 +8211,7 @@
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-      <c r="B135" s="82"/>
+      <c r="B135" s="97"/>
       <c r="C135" s="10" t="s">
         <v>360</v>
       </c>
@@ -8260,7 +8223,7 @@
         <f t="shared" si="3"/>
         <v>134</v>
       </c>
-      <c r="B136" s="82"/>
+      <c r="B136" s="97"/>
       <c r="C136" s="10" t="s">
         <v>200</v>
       </c>
@@ -8274,7 +8237,7 @@
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="B137" s="82"/>
+      <c r="B137" s="97"/>
       <c r="C137" s="24" t="s">
         <v>362</v>
       </c>
@@ -8288,7 +8251,7 @@
         <f t="shared" si="3"/>
         <v>136</v>
       </c>
-      <c r="B138" s="82"/>
+      <c r="B138" s="97"/>
       <c r="C138" s="10" t="s">
         <v>364</v>
       </c>
@@ -8300,7 +8263,7 @@
         <f t="shared" si="3"/>
         <v>137</v>
       </c>
-      <c r="B139" s="82"/>
+      <c r="B139" s="97"/>
       <c r="C139" s="10" t="s">
         <v>200</v>
       </c>
@@ -8312,7 +8275,7 @@
         <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="B140" s="84"/>
+      <c r="B140" s="99"/>
       <c r="C140" s="26" t="s">
         <v>362</v>
       </c>
@@ -8326,7 +8289,7 @@
         <f t="shared" si="3"/>
         <v>139</v>
       </c>
-      <c r="B141" s="81" t="s">
+      <c r="B141" s="96" t="s">
         <v>365</v>
       </c>
       <c r="C141" s="10" t="s">
@@ -8340,7 +8303,7 @@
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="B142" s="81"/>
+      <c r="B142" s="96"/>
       <c r="C142" s="10" t="s">
         <v>358</v>
       </c>
@@ -8352,7 +8315,7 @@
         <f t="shared" si="3"/>
         <v>141</v>
       </c>
-      <c r="B143" s="81"/>
+      <c r="B143" s="96"/>
       <c r="C143" s="10" t="s">
         <v>367</v>
       </c>
@@ -8366,7 +8329,7 @@
         <f t="shared" si="3"/>
         <v>142</v>
       </c>
-      <c r="B144" s="81"/>
+      <c r="B144" s="96"/>
       <c r="C144" s="10" t="s">
         <v>205</v>
       </c>
@@ -8380,7 +8343,7 @@
         <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="B145" s="81"/>
+      <c r="B145" s="96"/>
       <c r="C145" s="10" t="s">
         <v>370</v>
       </c>
@@ -8394,7 +8357,7 @@
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="B146" s="81"/>
+      <c r="B146" s="96"/>
       <c r="C146" s="10" t="s">
         <v>372</v>
       </c>
@@ -8406,7 +8369,7 @@
         <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="B147" s="81"/>
+      <c r="B147" s="96"/>
       <c r="C147" s="10" t="s">
         <v>358</v>
       </c>
@@ -8418,7 +8381,7 @@
         <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="B148" s="81"/>
+      <c r="B148" s="96"/>
       <c r="C148" s="10" t="s">
         <v>367</v>
       </c>
@@ -8432,7 +8395,7 @@
         <f t="shared" si="3"/>
         <v>147</v>
       </c>
-      <c r="B149" s="81"/>
+      <c r="B149" s="96"/>
       <c r="C149" s="10" t="s">
         <v>373</v>
       </c>
@@ -8444,7 +8407,7 @@
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="B150" s="81"/>
+      <c r="B150" s="96"/>
       <c r="C150" s="10" t="s">
         <v>374</v>
       </c>
@@ -8456,7 +8419,7 @@
         <f t="shared" si="3"/>
         <v>149</v>
       </c>
-      <c r="B151" s="81"/>
+      <c r="B151" s="96"/>
       <c r="C151" s="10" t="s">
         <v>375</v>
       </c>
@@ -8470,7 +8433,7 @@
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="B152" s="81"/>
+      <c r="B152" s="96"/>
       <c r="C152" s="10" t="s">
         <v>377</v>
       </c>
@@ -8484,7 +8447,7 @@
         <f t="shared" si="3"/>
         <v>151</v>
       </c>
-      <c r="B153" s="82" t="s">
+      <c r="B153" s="97" t="s">
         <v>379</v>
       </c>
       <c r="C153" s="10" t="s">
@@ -8498,7 +8461,7 @@
         <f t="shared" si="3"/>
         <v>152</v>
       </c>
-      <c r="B154" s="82"/>
+      <c r="B154" s="97"/>
       <c r="C154" s="10" t="s">
         <v>381</v>
       </c>
@@ -8510,7 +8473,7 @@
         <f t="shared" si="3"/>
         <v>153</v>
       </c>
-      <c r="B155" s="82"/>
+      <c r="B155" s="97"/>
       <c r="C155" s="10" t="s">
         <v>382</v>
       </c>
@@ -8522,7 +8485,7 @@
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="B156" s="82"/>
+      <c r="B156" s="97"/>
       <c r="C156" s="10" t="s">
         <v>383</v>
       </c>
@@ -8536,7 +8499,7 @@
         <f t="shared" si="3"/>
         <v>155</v>
       </c>
-      <c r="B157" s="82"/>
+      <c r="B157" s="97"/>
       <c r="C157" s="10" t="s">
         <v>385</v>
       </c>
@@ -8550,7 +8513,7 @@
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="B158" s="82"/>
+      <c r="B158" s="97"/>
       <c r="C158" s="10" t="s">
         <v>387</v>
       </c>
@@ -8564,7 +8527,7 @@
         <f t="shared" si="3"/>
         <v>157</v>
       </c>
-      <c r="B159" s="82"/>
+      <c r="B159" s="97"/>
       <c r="C159" s="10" t="s">
         <v>389</v>
       </c>
@@ -8578,7 +8541,7 @@
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="B160" s="82"/>
+      <c r="B160" s="97"/>
       <c r="C160" s="10" t="s">
         <v>391</v>
       </c>
@@ -8590,7 +8553,7 @@
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
-      <c r="B161" s="82"/>
+      <c r="B161" s="97"/>
       <c r="C161" s="19" t="s">
         <v>392</v>
       </c>
@@ -8602,7 +8565,7 @@
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="B162" s="82"/>
+      <c r="B162" s="97"/>
       <c r="C162" s="10" t="s">
         <v>383</v>
       </c>
@@ -8616,7 +8579,7 @@
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="B163" s="82"/>
+      <c r="B163" s="97"/>
       <c r="C163" s="10" t="s">
         <v>394</v>
       </c>
@@ -8630,7 +8593,7 @@
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="B164" s="82"/>
+      <c r="B164" s="97"/>
       <c r="C164" s="10" t="s">
         <v>396</v>
       </c>
@@ -8644,7 +8607,7 @@
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="B165" s="82"/>
+      <c r="B165" s="97"/>
       <c r="C165" s="10" t="s">
         <v>398</v>
       </c>
@@ -8658,7 +8621,7 @@
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="B166" s="82"/>
+      <c r="B166" s="97"/>
       <c r="C166" s="10" t="s">
         <v>400</v>
       </c>
@@ -8672,7 +8635,7 @@
         <f t="shared" si="3"/>
         <v>165</v>
       </c>
-      <c r="B167" s="82"/>
+      <c r="B167" s="97"/>
       <c r="C167" s="12" t="s">
         <v>402</v>
       </c>
@@ -8697,7 +8660,7 @@
     <mergeCell ref="B133:B140"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E167">
-    <cfRule type="containsBlanks" dxfId="10" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8750,7 +8713,7 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="103" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="37" t="s">
@@ -8765,7 +8728,7 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="88"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="37" t="s">
         <v>406</v>
       </c>
@@ -8776,7 +8739,7 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="88"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="37" t="s">
         <v>72</v>
       </c>
@@ -8789,7 +8752,7 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="37" t="s">
         <v>74</v>
       </c>
@@ -8800,7 +8763,7 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="37" t="s">
         <v>408</v>
       </c>
@@ -8811,7 +8774,7 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="88"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="37" t="s">
         <v>409</v>
       </c>
@@ -8824,7 +8787,7 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="88"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="37" t="s">
         <v>411</v>
       </c>
@@ -8837,7 +8800,7 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="88"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="37" t="s">
         <v>413</v>
       </c>
@@ -8850,7 +8813,7 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="88"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="37" t="s">
         <v>414</v>
       </c>
@@ -8863,7 +8826,7 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="104" t="s">
         <v>415</v>
       </c>
       <c r="C12" s="38" t="s">
@@ -8878,7 +8841,7 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="89"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="38" t="s">
         <v>418</v>
       </c>
@@ -8891,7 +8854,7 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="89"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="38" t="s">
         <v>420</v>
       </c>
@@ -8904,7 +8867,7 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="38" t="s">
         <v>422</v>
       </c>
@@ -8917,7 +8880,7 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="89"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="38" t="s">
         <v>424</v>
       </c>
@@ -8930,7 +8893,7 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="89"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="38" t="s">
         <v>426</v>
       </c>
@@ -8943,7 +8906,7 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="89"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="38" t="s">
         <v>428</v>
       </c>
@@ -8956,7 +8919,7 @@
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="85" t="s">
         <v>430</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -8971,7 +8934,7 @@
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="80"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="39" t="s">
         <v>433</v>
       </c>
@@ -8984,7 +8947,7 @@
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="80"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="39" t="s">
         <v>435</v>
       </c>
@@ -8997,7 +8960,7 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="80"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="39" t="s">
         <v>437</v>
       </c>
@@ -9010,7 +8973,7 @@
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="39" t="s">
         <v>439</v>
       </c>
@@ -9023,7 +8986,7 @@
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="39" t="s">
         <v>441</v>
       </c>
@@ -9036,7 +8999,7 @@
       <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="80"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="39" t="s">
         <v>443</v>
       </c>
@@ -9049,7 +9012,7 @@
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="85" t="s">
         <v>445</v>
       </c>
       <c r="C26" s="39" t="s">
@@ -9064,11 +9027,11 @@
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="80"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="39" t="s">
         <v>448</v>
       </c>
-      <c r="D27" s="90" t="s">
+      <c r="D27" s="105" t="s">
         <v>449</v>
       </c>
       <c r="E27" s="4"/>
@@ -9077,18 +9040,18 @@
       <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="80"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="39" t="s">
         <v>450</v>
       </c>
-      <c r="D28" s="90"/>
+      <c r="D28" s="105"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="80"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="39" t="s">
         <v>451</v>
       </c>
@@ -9101,7 +9064,7 @@
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="39" t="s">
         <v>453</v>
       </c>
@@ -9114,7 +9077,7 @@
       <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="80"/>
+      <c r="B31" s="85"/>
       <c r="C31" s="39" t="s">
         <v>455</v>
       </c>
@@ -9127,7 +9090,7 @@
       <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="80"/>
+      <c r="B32" s="85"/>
       <c r="C32" s="39" t="s">
         <v>457</v>
       </c>
@@ -9140,7 +9103,7 @@
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="80"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="39" t="s">
         <v>459</v>
       </c>
@@ -9153,7 +9116,7 @@
       <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="80"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="39" t="s">
         <v>461</v>
       </c>
@@ -9166,7 +9129,7 @@
       <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="85" t="s">
         <v>463</v>
       </c>
       <c r="C35" s="38" t="s">
@@ -9181,7 +9144,7 @@
       <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="80"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="38" t="s">
         <v>466</v>
       </c>
@@ -9194,7 +9157,7 @@
       <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="80"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="38" t="s">
         <v>468</v>
       </c>
@@ -9207,7 +9170,7 @@
       <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="80"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="38" t="s">
         <v>470</v>
       </c>
@@ -9220,7 +9183,7 @@
       <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="80"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="38" t="s">
         <v>472</v>
       </c>
@@ -9233,7 +9196,7 @@
       <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="80"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="38" t="s">
         <v>474</v>
       </c>
@@ -9246,7 +9209,7 @@
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="80"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="38" t="s">
         <v>472</v>
       </c>
@@ -9259,7 +9222,7 @@
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="80"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="38" t="s">
         <v>476</v>
       </c>
@@ -9272,7 +9235,7 @@
       <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="80"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="38" t="s">
         <v>472</v>
       </c>
@@ -9285,7 +9248,7 @@
       <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="80"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="38" t="s">
         <v>478</v>
       </c>
@@ -9298,7 +9261,7 @@
       <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="80"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="38" t="s">
         <v>472</v>
       </c>
@@ -9311,7 +9274,7 @@
       <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" s="80"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="38" t="s">
         <v>480</v>
       </c>
@@ -9324,7 +9287,7 @@
       <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47" s="80"/>
+      <c r="B47" s="85"/>
       <c r="C47" s="38" t="s">
         <v>472</v>
       </c>
@@ -9337,7 +9300,7 @@
       <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="38" t="s">
         <v>482</v>
       </c>
@@ -9350,7 +9313,7 @@
       <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="B49" s="80"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="38" t="s">
         <v>484</v>
       </c>
@@ -9363,7 +9326,7 @@
       <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50" s="80"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="38" t="s">
         <v>486</v>
       </c>
@@ -9376,7 +9339,7 @@
       <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="B51" s="80"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="37" t="s">
         <v>488</v>
       </c>
@@ -9389,7 +9352,7 @@
       <c r="A52" s="4">
         <v>50</v>
       </c>
-      <c r="B52" s="80"/>
+      <c r="B52" s="85"/>
       <c r="C52" s="37" t="s">
         <v>490</v>
       </c>
@@ -9402,7 +9365,7 @@
       <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53" s="80"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="37" t="s">
         <v>492</v>
       </c>
@@ -9415,7 +9378,7 @@
       <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="85" t="s">
         <v>494</v>
       </c>
       <c r="C54" s="39" t="s">
@@ -9430,7 +9393,7 @@
       <c r="A55" s="4">
         <v>53</v>
       </c>
-      <c r="B55" s="80"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="39" t="s">
         <v>497</v>
       </c>
@@ -9443,7 +9406,7 @@
       <c r="A56" s="4">
         <v>54</v>
       </c>
-      <c r="B56" s="80"/>
+      <c r="B56" s="85"/>
       <c r="C56" s="39" t="s">
         <v>499</v>
       </c>
@@ -9456,11 +9419,11 @@
       <c r="A57" s="4">
         <v>55</v>
       </c>
-      <c r="B57" s="80"/>
+      <c r="B57" s="85"/>
       <c r="C57" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="D57" s="90" t="s">
+      <c r="D57" s="105" t="s">
         <v>502</v>
       </c>
       <c r="E57" s="4"/>
@@ -9469,18 +9432,18 @@
       <c r="A58" s="4">
         <v>56</v>
       </c>
-      <c r="B58" s="80"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="D58" s="90"/>
+      <c r="D58" s="105"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>57</v>
       </c>
-      <c r="B59" s="80"/>
+      <c r="B59" s="85"/>
       <c r="C59" s="39" t="s">
         <v>504</v>
       </c>
@@ -9493,7 +9456,7 @@
       <c r="A60" s="4">
         <v>58</v>
       </c>
-      <c r="B60" s="80"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="39" t="s">
         <v>506</v>
       </c>
@@ -9506,7 +9469,7 @@
       <c r="A61" s="4">
         <v>59</v>
       </c>
-      <c r="B61" s="80"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="39" t="s">
         <v>508</v>
       </c>
@@ -9519,7 +9482,7 @@
       <c r="A62" s="4">
         <v>60</v>
       </c>
-      <c r="B62" s="88" t="s">
+      <c r="B62" s="103" t="s">
         <v>510</v>
       </c>
       <c r="C62" s="39" t="s">
@@ -9534,7 +9497,7 @@
       <c r="A63" s="4">
         <v>61</v>
       </c>
-      <c r="B63" s="88"/>
+      <c r="B63" s="103"/>
       <c r="C63" s="39" t="s">
         <v>513</v>
       </c>
@@ -9547,7 +9510,7 @@
       <c r="A64" s="4">
         <v>62</v>
       </c>
-      <c r="B64" s="88"/>
+      <c r="B64" s="103"/>
       <c r="C64" s="39" t="s">
         <v>515</v>
       </c>
@@ -9560,7 +9523,7 @@
       <c r="A65" s="4">
         <v>63</v>
       </c>
-      <c r="B65" s="88"/>
+      <c r="B65" s="103"/>
       <c r="C65" s="39" t="s">
         <v>517</v>
       </c>
@@ -9573,7 +9536,7 @@
       <c r="A66" s="4">
         <v>64</v>
       </c>
-      <c r="B66" s="88"/>
+      <c r="B66" s="103"/>
       <c r="C66" s="39" t="s">
         <v>519</v>
       </c>
@@ -9586,7 +9549,7 @@
       <c r="A67" s="4">
         <v>65</v>
       </c>
-      <c r="B67" s="88"/>
+      <c r="B67" s="103"/>
       <c r="C67" s="39" t="s">
         <v>521</v>
       </c>
@@ -9599,7 +9562,7 @@
       <c r="A68" s="4">
         <v>66</v>
       </c>
-      <c r="B68" s="88"/>
+      <c r="B68" s="103"/>
       <c r="C68" s="39" t="s">
         <v>523</v>
       </c>
@@ -9612,7 +9575,7 @@
       <c r="A69" s="4">
         <v>67</v>
       </c>
-      <c r="B69" s="88"/>
+      <c r="B69" s="103"/>
       <c r="C69" s="39" t="s">
         <v>525</v>
       </c>
@@ -9625,7 +9588,7 @@
       <c r="A70" s="4">
         <v>68</v>
       </c>
-      <c r="B70" s="88"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="39" t="s">
         <v>527</v>
       </c>
@@ -9638,7 +9601,7 @@
       <c r="A71" s="4">
         <v>69</v>
       </c>
-      <c r="B71" s="88"/>
+      <c r="B71" s="103"/>
       <c r="C71" s="39" t="s">
         <v>528</v>
       </c>
@@ -9651,7 +9614,7 @@
       <c r="A72" s="4">
         <v>70</v>
       </c>
-      <c r="B72" s="88"/>
+      <c r="B72" s="103"/>
       <c r="C72" s="39" t="s">
         <v>530</v>
       </c>
@@ -9664,7 +9627,7 @@
       <c r="A73" s="4">
         <v>71</v>
       </c>
-      <c r="B73" s="88"/>
+      <c r="B73" s="103"/>
       <c r="C73" s="38" t="s">
         <v>532</v>
       </c>
@@ -9677,7 +9640,7 @@
       <c r="A74" s="4">
         <v>72</v>
       </c>
-      <c r="B74" s="88" t="s">
+      <c r="B74" s="103" t="s">
         <v>534</v>
       </c>
       <c r="C74" s="39" t="s">
@@ -9692,7 +9655,7 @@
       <c r="A75" s="4">
         <v>73</v>
       </c>
-      <c r="B75" s="88"/>
+      <c r="B75" s="103"/>
       <c r="C75" s="39" t="s">
         <v>537</v>
       </c>
@@ -9705,7 +9668,7 @@
       <c r="A76" s="4">
         <v>74</v>
       </c>
-      <c r="B76" s="88"/>
+      <c r="B76" s="103"/>
       <c r="C76" s="39" t="s">
         <v>539</v>
       </c>
@@ -10095,7 +10058,7 @@
     <mergeCell ref="D27:D28"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E76">
-    <cfRule type="containsBlanks" dxfId="9" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10211,13 +10174,13 @@
         <f>SUM(B2:G2)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="94">
+      <c r="J2" s="66">
         <v>0</v>
       </c>
       <c r="K2" s="60">
         <v>0</v>
       </c>
-      <c r="L2" s="95" t="s">
+      <c r="L2" s="67" t="s">
         <v>652</v>
       </c>
       <c r="M2" s="31">
@@ -10241,13 +10204,13 @@
         <f t="shared" ref="H3:H15" si="0">SUM(B3:G3)</f>
         <v>108</v>
       </c>
-      <c r="J3" s="94">
+      <c r="J3" s="66">
         <v>1</v>
       </c>
       <c r="K3" s="60">
         <v>3</v>
       </c>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="68" t="s">
         <v>655</v>
       </c>
       <c r="M3" s="61" t="s">
@@ -10275,13 +10238,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J4" s="94">
+      <c r="J4" s="66">
         <v>2</v>
       </c>
       <c r="K4" s="60">
         <v>4</v>
       </c>
-      <c r="L4" s="97" t="s">
+      <c r="L4" s="69" t="s">
         <v>656</v>
       </c>
       <c r="M4" s="31" t="s">
@@ -10313,13 +10276,13 @@
         <f t="shared" si="0"/>
         <v>-102</v>
       </c>
-      <c r="J5" s="94">
+      <c r="J5" s="66">
         <v>3</v>
       </c>
       <c r="K5" s="60">
         <v>1</v>
       </c>
-      <c r="L5" s="97" t="s">
+      <c r="L5" s="69" t="s">
         <v>653</v>
       </c>
       <c r="M5" s="31" t="s">
@@ -10343,13 +10306,13 @@
         <f t="shared" si="0"/>
         <v>-68</v>
       </c>
-      <c r="J6" s="94">
+      <c r="J6" s="66">
         <v>4</v>
       </c>
       <c r="K6" s="60">
         <v>5</v>
       </c>
-      <c r="L6" s="97" t="s">
+      <c r="L6" s="69" t="s">
         <v>657</v>
       </c>
       <c r="M6" s="31" t="s">
@@ -10373,13 +10336,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J7" s="94">
+      <c r="J7" s="66">
         <v>5</v>
       </c>
       <c r="K7" s="60">
         <v>2</v>
       </c>
-      <c r="L7" s="97" t="s">
+      <c r="L7" s="69" t="s">
         <v>654</v>
       </c>
       <c r="M7" s="31" t="s">
@@ -10555,7 +10518,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G15">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
